--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/90.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/90.xlsx
@@ -479,13 +479,13 @@
         <v>-5.606990620604657</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.30335701961499</v>
+        <v>-10.7291448926336</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.178840028415865</v>
+        <v>-3.465914952826393</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.223340406887566</v>
+        <v>-9.450602966322004</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.209298052740011</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.86865647171504</v>
+        <v>-11.34699684834034</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.278891406732336</v>
+        <v>-3.473272827023442</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.112919924720448</v>
+        <v>-9.326880704467692</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.69733318650198</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.02804216651021</v>
+        <v>-11.51697421613447</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.180450381665397</v>
+        <v>-3.36372952914672</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.737458863825427</v>
+        <v>-8.921948869875948</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.118804385675696</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.49082888735954</v>
+        <v>-11.99129525578737</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.322894636583377</v>
+        <v>-3.525170715488045</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.441232419728533</v>
+        <v>-8.582544011007041</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.455654294289725</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.92203697375463</v>
+        <v>-12.39812547429116</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.406410436410747</v>
+        <v>-3.509577782803549</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.158975462763761</v>
+        <v>-8.293465964261729</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.714935860755043</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.46873226351659</v>
+        <v>-12.99844683649283</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.282387051591076</v>
+        <v>-3.285843419541292</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.844223410145824</v>
+        <v>-7.909233060462753</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.894091334779745</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.05000432508354</v>
+        <v>-13.54503738783205</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.279820960234098</v>
+        <v>-3.112789360579357</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.683698685003422</v>
+        <v>-7.73665032440312</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.9972509826576145</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.47223109172921</v>
+        <v>-13.8981367954734</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.396237717102726</v>
+        <v>-3.259527890829423</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.541476999233751</v>
+        <v>-7.471072961258706</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03508507320793905</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.14755825691112</v>
+        <v>-14.66500534212466</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.270315948371005</v>
+        <v>-3.10621702455281</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.506991873548644</v>
+        <v>-7.394456805028925</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.9674271119829206</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.59367847624294</v>
+        <v>-15.1290489240468</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.351174010721505</v>
+        <v>-3.139379827650902</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.51408790168886</v>
+        <v>-7.374058997201516</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.976512426063543</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.14974785483957</v>
+        <v>-15.74286845047829</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.387963381706756</v>
+        <v>-3.163495849485362</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.257727519745022</v>
+        <v>-6.926027301654808</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.952538999214972</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.23390517750619</v>
+        <v>-15.83452766267321</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.479177455605061</v>
+        <v>-3.391930349467799</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.808137840160149</v>
+        <v>-6.488286156141697</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.849459086457192</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.92164384578206</v>
+        <v>-16.63945553368537</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.17993978185457</v>
+        <v>-3.001949924721304</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.44330772917261</v>
+        <v>-6.064488313155024</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.629336527554161</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.52446583782649</v>
+        <v>-17.26916911576671</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.113470160327127</v>
+        <v>-2.95587811102127</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.394447254967289</v>
+        <v>-5.947364571932943</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>5.274699250811008</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.28728886289966</v>
+        <v>-18.07892804652747</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.924220922749976</v>
+        <v>-2.689070071409734</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.149935407095213</v>
+        <v>-5.712043520655758</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>5.79118539429935</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.79919790401115</v>
+        <v>-18.6418054226018</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.790810356792788</v>
+        <v>-2.609233208680889</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.902019560484288</v>
+        <v>-5.554124163778859</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>6.200543471204161</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.21473450390469</v>
+        <v>-19.13242637929264</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.875216433213396</v>
+        <v>-2.575153944383876</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.812965716554867</v>
+        <v>-5.50597067392699</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>6.532720338282165</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.78257386275603</v>
+        <v>-19.80794992901718</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.654912253295671</v>
+        <v>-2.318937577771297</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.447114405945674</v>
+        <v>-5.197097065284988</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>6.818231897605123</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.10270685184192</v>
+        <v>-20.20027387597234</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.412482081575429</v>
+        <v>-2.107994394385406</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.068301715523172</v>
+        <v>-4.978612715462264</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>7.072850820700674</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.77829586308067</v>
+        <v>-20.93769783353256</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.170405402031915</v>
+        <v>-1.835281726192252</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.026707469395008</v>
+        <v>-5.106603068042978</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>7.298172745143923</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.3399818395964</v>
+        <v>-21.61438659821002</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.977974734864225</v>
+        <v>-1.534171853135395</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.002185586172455</v>
+        <v>-5.174944888876788</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>7.484019798280217</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.53209829149589</v>
+        <v>-21.80683035768055</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.850835381968223</v>
+        <v>-1.437013873746945</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.825007451815376</v>
+        <v>-5.147411776000638</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.61502248498329</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.05640574339849</v>
+        <v>-22.39947963041696</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.64889970293744</v>
+        <v>-1.30287013883062</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.975267811529866</v>
+        <v>-5.353759561089083</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>7.671744338466537</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.21915616002399</v>
+        <v>-22.64285244794181</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.4600301421427</v>
+        <v>-1.100594059925952</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.988831437273895</v>
+        <v>-5.36374898815732</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>7.638470497748886</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.33745820850183</v>
+        <v>-22.69859947344188</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.468252108327304</v>
+        <v>-1.130850371793181</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.199250928546116</v>
+        <v>-5.527834819672672</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>7.508410173738038</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.41855193230348</v>
+        <v>-22.77326487654824</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.311118289620907</v>
+        <v>-0.8806171875792709</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.448672389983839</v>
+        <v>-5.702761077940974</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>7.284796898608422</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.34056108427532</v>
+        <v>-22.6021222938012</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.254598818253176</v>
+        <v>-0.8980299503587665</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.484073976867867</v>
+        <v>-5.728919499018743</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>6.986144196267179</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.39558803311909</v>
+        <v>-22.7448545793817</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.103736212607967</v>
+        <v>-0.7824772854776922</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.797202583933429</v>
+        <v>-5.999393383425963</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>6.639709965681722</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.43258688094981</v>
+        <v>-22.80898067870047</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.193562502405049</v>
+        <v>-0.8005970326106412</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.979696193244248</v>
+        <v>-6.183746099740307</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>6.279330483159655</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.27494246243259</v>
+        <v>-22.63546838913907</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.26016304696091</v>
+        <v>-0.8898734456883712</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.026317883663635</v>
+        <v>-6.244991892433902</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.938175791003595</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.15969092051687</v>
+        <v>-22.43975155395811</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.345053538586661</v>
+        <v>-0.9866386559915686</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.344251365872111</v>
+        <v>-6.442135788624612</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.649203543777548</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.11512472164364</v>
+        <v>-22.49742314797592</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.420150987686802</v>
+        <v>-1.045239803511135</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.254346522257978</v>
+        <v>-6.37218361454127</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.436543913677348</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.72092857538211</v>
+        <v>-22.03336647375093</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.562176288913847</v>
+        <v>-1.240236562035802</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.189251592528916</v>
+        <v>-6.234937003851456</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.315601184452816</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.45450021255298</v>
+        <v>-21.7544480540108</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.594619015355644</v>
+        <v>-1.284409991823786</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.153653621102262</v>
+        <v>-6.234125281075269</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.288442324310893</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.22220348323224</v>
+        <v>-21.50678096115387</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.76525099829186</v>
+        <v>-1.412099221439141</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.051023059125972</v>
+        <v>-5.987518664748516</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.344848323276471</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.93655561983146</v>
+        <v>-21.17829508285497</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.770514104034233</v>
+        <v>-1.434460874692809</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.870755141298246</v>
+        <v>-5.949852109472871</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.461678573229352</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.61851739920025</v>
+        <v>-20.81023117306552</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.842377754332468</v>
+        <v>-1.583830957814061</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.512916320028189</v>
+        <v>-5.45606281549433</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.608141093340151</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.48576144838514</v>
+        <v>-20.69927390648189</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.779259762332506</v>
+        <v>-1.512255338178345</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.178525813147663</v>
+        <v>-5.094361764885964</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.752111758141407</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.11841761525199</v>
+        <v>-20.30640008280738</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.92430938551599</v>
+        <v>-1.526971086572445</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.331967602452693</v>
+        <v>-5.174093889192076</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.860745794045784</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.75057627461086</v>
+        <v>-19.85647000334862</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.786709282649449</v>
+        <v>-1.392591690204969</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.919180386155912</v>
+        <v>-4.779308589302668</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.902805267714191</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.20539969197854</v>
+        <v>-19.27713560260224</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.890269398127502</v>
+        <v>-1.531357008024423</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.818749331057031</v>
+        <v>-4.769515546777057</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.852203666381471</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.8540284683123</v>
+        <v>-18.82800415361682</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.166739557236231</v>
+        <v>-1.847365921715165</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.728360072237754</v>
+        <v>-4.710233599509722</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>5.697668574568842</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.67805482581666</v>
+        <v>-18.63141013414547</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.281585237763852</v>
+        <v>-2.00994613840372</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.554455013591107</v>
+        <v>-4.4482304350411</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>5.439650013239905</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.50959616515217</v>
+        <v>-18.31502154367232</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.191313809670151</v>
+        <v>-2.035332113613827</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.499349510930282</v>
+        <v>-4.393439147648476</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>5.092133469901414</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.09128399705618</v>
+        <v>-17.79558442842683</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.317549793670074</v>
+        <v>-2.14670833388839</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.313504272091981</v>
+        <v>-4.241856465346971</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.679300427565069</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.16830601467406</v>
+        <v>-17.7112961827318</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.226767765765545</v>
+        <v>-1.984206671016886</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.194102470175439</v>
+        <v>-4.199934911647764</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.233397618378573</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.03939920089442</v>
+        <v>-17.57208572661573</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.361553023521115</v>
+        <v>-2.122422112116988</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.97505515133052</v>
+        <v>-3.956234786551875</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.784442409716094</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.5883824602998</v>
+        <v>-17.15246432823557</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.388051844472769</v>
+        <v>-2.154079300388282</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.928079968734407</v>
+        <v>-3.997554094320363</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.35526289353399</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.31720159153912</v>
+        <v>-16.77179253080954</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.574682621481574</v>
+        <v>-2.350149627745972</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.742719145101249</v>
+        <v>-3.817404007218212</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>2.961314812327476</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.86662998924112</v>
+        <v>-16.28355437323589</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.679342490398332</v>
+        <v>-2.512873859765785</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.651753824956936</v>
+        <v>-3.622538171721962</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>2.611472822117625</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.70512334138559</v>
+        <v>-16.02465408454076</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.589778046658084</v>
+        <v>-2.41764044889507</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.601675766587334</v>
+        <v>-3.509774167346175</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>2.30673262337976</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.25486595435579</v>
+        <v>-15.527408422612</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.467155538242478</v>
+        <v>-2.324200683513671</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.621379682364132</v>
+        <v>-3.474699888033191</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>2.040446021453652</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.92389253851695</v>
+        <v>-15.13270167653964</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.671055062699519</v>
+        <v>-2.51329281345672</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.814124564800023</v>
+        <v>-3.670861861510772</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.804155941871873</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.53518206714611</v>
+        <v>-14.75413773987113</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.695236546048188</v>
+        <v>-2.518254796233734</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.845951953008259</v>
+        <v>-3.700764681201274</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.586550711250491</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.62809814041384</v>
+        <v>-14.81334113332142</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.529645099706036</v>
+        <v>-2.42849396795086</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.730451657338552</v>
+        <v>-3.615415958976062</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.376527366622054</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.47847930353859</v>
+        <v>-14.67428778483945</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.683113073616749</v>
+        <v>-2.625899710198406</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.921101771319767</v>
+        <v>-3.753264815596596</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.165044005438597</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.40353896207255</v>
+        <v>-14.52023065730086</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.546180678195136</v>
+        <v>-2.463123108967226</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.26867622716191</v>
+        <v>-4.127534476933019</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.9499038860661508</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.07247390011382</v>
+        <v>-14.16003522151929</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.532617052451108</v>
+        <v>-2.480483502535355</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.496089527522692</v>
+        <v>-4.532728157581599</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.7307158880346427</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.75925364692837</v>
+        <v>-13.93071044494361</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.584750602366861</v>
+        <v>-2.526070901030245</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.671146708819411</v>
+        <v>-4.634533904478861</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.5066971818961924</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.77163896541664</v>
+        <v>-13.8987652260098</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.451038913444313</v>
+        <v>-2.346981290458274</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.832286772195376</v>
+        <v>-4.78705923258497</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2763950264179478</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.58293960455885</v>
+        <v>-13.73636830156103</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.433455950727875</v>
+        <v>-2.349337904969785</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.007213030463678</v>
+        <v>-4.950634464289496</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.04021328056044657</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.48222051879745</v>
+        <v>-13.69994551505535</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.522287225508986</v>
+        <v>-2.379450201505755</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.002656909074757</v>
+        <v>-4.862641096890255</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.199646679499089</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.26742819837609</v>
+        <v>-13.47543870592543</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.393956473054387</v>
+        <v>-2.241431144948278</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.08770450833461</v>
+        <v>-4.95271614044133</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4430700707667877</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.15594723967879</v>
+        <v>-13.47155029198144</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.376648448697625</v>
+        <v>-2.277055300980615</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.354486363340462</v>
+        <v>-5.210425029577866</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6904423380828842</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.08562848111588</v>
+        <v>-13.36550263896346</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.434359319623954</v>
+        <v>-2.29476918672547</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.311595979230967</v>
+        <v>-5.153669896758983</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.9428508193151713</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.15607816270721</v>
+        <v>-13.54599312593949</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.561577226337006</v>
+        <v>-2.452138666883018</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.256726138021293</v>
+        <v>-5.097687209807763</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.200109548148292</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.21181209590444</v>
+        <v>-13.62706066513546</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.617481359471176</v>
+        <v>-2.412390435455537</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.360953960944275</v>
+        <v>-5.087593044316792</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.462764872131935</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.01999676697031</v>
+        <v>-13.52126176587147</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.419826863469638</v>
+        <v>-2.246000358640041</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.193123730816188</v>
+        <v>-4.875707215126297</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.72922846562512</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.15694225469476</v>
+        <v>-13.6054845500523</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.685888641819195</v>
+        <v>-2.543745509866575</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.140230827335615</v>
+        <v>-4.932724194002014</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.996464273864013</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.06541396552825</v>
+        <v>-13.5207380737578</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.721290228703222</v>
+        <v>-2.547018585577006</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.983620700742887</v>
+        <v>-4.678563318935586</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.2600939488027</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.186949812808</v>
+        <v>-13.65704203864301</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.790378310799011</v>
+        <v>-2.603734441487364</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.994722973552671</v>
+        <v>-4.873088754557952</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.514322175043064</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.31660288784961</v>
+        <v>-13.85595339571736</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.794410740074262</v>
+        <v>-2.546154493589452</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.887339905644834</v>
+        <v>-4.781154604003351</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.752527579606193</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.55551123010543</v>
+        <v>-14.10944656333886</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.855394686711022</v>
+        <v>-2.582092864889991</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.951950420168752</v>
+        <v>-4.827763202119896</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.967756289598809</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.80643830636995</v>
+        <v>-14.23583965497288</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.932220319786271</v>
+        <v>-2.642474565596031</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.803405152126528</v>
+        <v>-4.742663233648677</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.154496526695663</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.93683764267354</v>
+        <v>-14.36533562238039</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.092810506442883</v>
+        <v>-2.80811838114955</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.442319439751723</v>
+        <v>-4.496619586344119</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.30861829469413</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.42872855274003</v>
+        <v>-14.87932633964372</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.21559012249259</v>
+        <v>-2.834080417684692</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.172578724303641</v>
+        <v>-4.196426174486182</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.429023847009128</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.20351794261054</v>
+        <v>-15.71506039924246</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.428444782093373</v>
+        <v>-3.090558630354106</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.021991057018108</v>
+        <v>-4.099215825886366</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.515655480668412</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.62375467922426</v>
+        <v>-16.03209051255486</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.351789348955066</v>
+        <v>-2.979614456073319</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.994274651902174</v>
+        <v>-4.17441801340924</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.569653925608274</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.07481069672741</v>
+        <v>-16.32831695665175</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.558412072403187</v>
+        <v>-3.179979058763095</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.820356500952685</v>
+        <v>-4.013212488519067</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.591115431974095</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.70770570839929</v>
+        <v>-16.91074114086878</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.70937941647113</v>
+        <v>-3.323850374690823</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.552854569290538</v>
+        <v>-3.792633370241667</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.581563919297657</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.41160027838185</v>
+        <v>-17.60070550062774</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.966198029014429</v>
+        <v>-3.54872376830031</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.554032876546293</v>
+        <v>-3.790001817370479</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.544608504614743</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.25189045936951</v>
+        <v>-18.43596823732418</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.201453618777404</v>
+        <v>-3.771580947272171</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.628318602870247</v>
+        <v>-3.974118872233673</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.486631797900787</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.03118360141757</v>
+        <v>-19.23029134303454</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.432624410053762</v>
+        <v>-3.953982910463099</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.398430857272379</v>
+        <v>-3.781072866832422</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.415844039933492</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.93967158790779</v>
+        <v>-20.08893693260631</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.60046773248469</v>
+        <v>-4.094803719828704</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.410685252732234</v>
+        <v>-3.776320360900876</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.341241978369721</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.16479691862514</v>
+        <v>-21.17860929812317</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.819030636124465</v>
+        <v>-4.248350247556467</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.375440773482308</v>
+        <v>-3.745671279948395</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.274175724192348</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.24866939398312</v>
+        <v>-22.27131907789931</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.866909187616657</v>
+        <v>-4.269716885794164</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.617779299082657</v>
+        <v>-3.932734102950977</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.22861774395379</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.6561312263772</v>
+        <v>-23.60820030567364</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.9075869725459</v>
+        <v>-4.350601132750348</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.618591021858844</v>
+        <v>-3.989960558672162</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.222171941026843</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.01617273787855</v>
+        <v>-25.0012867895475</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.170061459916824</v>
+        <v>-4.60540353065602</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.753559571854198</v>
+        <v>-4.159859372649241</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.26993277219345</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.55844601263388</v>
+        <v>-26.5609335501738</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.270335407381604</v>
+        <v>-4.660482848711163</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.950153591325557</v>
+        <v>-4.425423643490812</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.385647503967387</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.0944742589337</v>
+        <v>-28.105864562406</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.518945146043141</v>
+        <v>-4.844639180482881</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.216045169738172</v>
+        <v>-4.582845492859727</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.575668769004278</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.79176039933507</v>
+        <v>-29.90926381733956</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.66896984430648</v>
+        <v>-5.025692636481111</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.443602485430212</v>
+        <v>-4.920744736901835</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.839347182784658</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.51515259160284</v>
+        <v>-31.68319229857639</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.822909141119495</v>
+        <v>-5.160674278779307</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.884106106842927</v>
+        <v>-5.260791118609986</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.1664459237809</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.16287127344543</v>
+        <v>-33.43197046605427</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.777727604012698</v>
+        <v>-5.121122431894452</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.298359661057982</v>
+        <v>-5.588124874258821</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.543233325451044</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.15225978254855</v>
+        <v>-35.40301665887613</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.991420170995351</v>
+        <v>-5.305540609723006</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.486247299139593</v>
+        <v>-5.84592540951525</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.949115266023288</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.98059987439559</v>
+        <v>-37.33356835900853</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.309235822478251</v>
+        <v>-5.568643527630333</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.075374742411583</v>
+        <v>-6.296274442664942</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.357810571469463</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.07509339071209</v>
+        <v>-39.50503152373153</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.298709610993503</v>
+        <v>-5.603416683977957</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.401909867587072</v>
+        <v>-6.637839531502734</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.746539685225123</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.32378804989843</v>
+        <v>-41.7813771265196</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.502582950844862</v>
+        <v>-5.751817936688922</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.91888562989831</v>
+        <v>-7.109882510461167</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.091564766580642</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.26482668460706</v>
+        <v>-43.78969710553186</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.61285941768072</v>
+        <v>-5.927673748458987</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.194242943265492</v>
+        <v>-7.303949715484073</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.383791643187348</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.360275939031</v>
+        <v>-46.0069833302009</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.727364698334457</v>
+        <v>-6.018063007278264</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.288677723662863</v>
+        <v>-7.507652855398488</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.606299499649208</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.5227315993989</v>
+        <v>-48.25753709639077</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.863171155711681</v>
+        <v>-6.113060756697828</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.765067347164749</v>
+        <v>-8.020962772914043</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.774369829693248</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.66964669629366</v>
+        <v>-50.53546686782268</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.288278228982526</v>
+        <v>-6.46115890465364</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.200111478292465</v>
+        <v>-8.45086162902496</v>
       </c>
     </row>
   </sheetData>
